--- a/Entidad-Relacion.xlsx
+++ b/Entidad-Relacion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1114a7fa3bfabec/Desktop/Recuperacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1114a7fa3bfabec/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19F7F40D-CDF0-4EFE-89BE-60B386BF863E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{41A2B8F7-2F44-425A-AF02-981BDE9C22A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D33BD857-5FD9-412A-ADA0-69A2E7DCEF5F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A276A36-FCB1-4F53-9818-E4AEC8835A20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
   <si>
     <t>ClienteNombre</t>
   </si>
@@ -113,15 +113,9 @@
     <t>Telefono</t>
   </si>
   <si>
-    <t xml:space="preserve"> TABLA CLIENTES</t>
-  </si>
-  <si>
     <t xml:space="preserve"> TABLA PRINCIPAL</t>
   </si>
   <si>
-    <t>TABLA VENDEDOR</t>
-  </si>
-  <si>
     <t>IDVendedor</t>
   </si>
   <si>
@@ -131,23 +125,74 @@
     <t>IDAuto</t>
   </si>
   <si>
-    <t>TABLA VENTA</t>
-  </si>
-  <si>
-    <t>TABLA AUTO</t>
-  </si>
-  <si>
     <t>NombreVendedor</t>
   </si>
   <si>
     <t>NombreCliente</t>
+  </si>
+  <si>
+    <t>ClienteApellido</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Lorena</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>VendedorNombre</t>
+  </si>
+  <si>
+    <t>VendedorApellido</t>
+  </si>
+  <si>
+    <t>Quiroga</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan </t>
+  </si>
+  <si>
+    <t>ApellidoVendedor</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>VENDEDOR</t>
+  </si>
+  <si>
+    <t>VENTA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,19 +240,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -221,8 +268,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -334,38 +393,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,14 +904,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0FE62-8816-4D62-A1EC-7487D85B57B0}">
-  <dimension ref="D4:N25"/>
+  <dimension ref="B4:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
@@ -719,57 +926,58 @@
     <col min="12" max="12" width="29" customWidth="1"/>
     <col min="13" max="13" width="29.140625" customWidth="1"/>
     <col min="14" max="14" width="29" customWidth="1"/>
+    <col min="15" max="15" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="4:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
+      <c r="D5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="20"/>
     </row>
     <row r="6" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>29</v>
+      <c r="M6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -877,206 +1085,426 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="4:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="D14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="H14" s="9" t="s">
+    <row r="24" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="K14" s="9" t="s">
+      <c r="C24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="6" t="s">
+      <c r="E24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="7">
+        <v>123456789</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7">
+        <v>15000</v>
+      </c>
+      <c r="I25" s="8">
+        <v>44941</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="4">
+        <v>987654321</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4">
+        <v>16000</v>
+      </c>
+      <c r="I26" s="5">
+        <v>44967</v>
+      </c>
+      <c r="K26" s="4">
+        <v>2</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="4">
+        <v>123456780</v>
+      </c>
+      <c r="G27" s="4">
+        <v>3</v>
+      </c>
+      <c r="H27" s="4">
+        <v>14000</v>
+      </c>
+      <c r="I27" s="5">
+        <v>44997</v>
+      </c>
+      <c r="K27" s="4">
+        <v>2</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="28"/>
+      <c r="J56" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="17"/>
+    </row>
+    <row r="57" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="C57" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="J57" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="K57" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L57" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L15" s="7" t="s">
+      <c r="M57" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="7">
+        <v>1</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="7">
+        <v>123456789</v>
+      </c>
+      <c r="J58" s="4">
+        <v>1</v>
+      </c>
+      <c r="K58" s="4">
+        <v>1</v>
+      </c>
+      <c r="L58" s="4">
+        <v>1</v>
+      </c>
+      <c r="M58" s="4">
+        <v>1</v>
+      </c>
+      <c r="N58" s="8">
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="4">
+        <v>2</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="4">
+        <v>987654321</v>
+      </c>
+      <c r="J59" s="4">
+        <v>2</v>
+      </c>
+      <c r="K59" s="4">
+        <v>2</v>
+      </c>
+      <c r="L59" s="4">
+        <v>2</v>
+      </c>
+      <c r="M59" s="4">
+        <v>2</v>
+      </c>
+      <c r="N59" s="5">
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="4">
+        <v>3</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="4">
+        <v>123456780</v>
+      </c>
+      <c r="J60" s="4">
+        <v>3</v>
+      </c>
+      <c r="K60" s="4">
+        <v>3</v>
+      </c>
+      <c r="L60" s="4">
+        <v>3</v>
+      </c>
+      <c r="M60" s="4">
+        <v>2</v>
+      </c>
+      <c r="N60" s="5">
+        <v>44997</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="17"/>
+    </row>
+    <row r="64" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I64" s="27"/>
+      <c r="J64" s="28"/>
+    </row>
+    <row r="65" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D16" s="4">
+      <c r="J65" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C66" s="4">
+        <v>2</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="4">
-        <v>123456789</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="4">
-        <v>1</v>
-      </c>
-      <c r="L16" s="4">
-        <v>1</v>
-      </c>
-      <c r="M16" s="4">
-        <v>1</v>
-      </c>
-      <c r="N16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="4">
-        <v>2</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="4">
-        <v>987654321</v>
-      </c>
-      <c r="H17" s="2">
-        <v>2</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="J66" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C67" s="4">
+        <v>3</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="2">
+        <v>2</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="4">
-        <v>2</v>
-      </c>
-      <c r="L17" s="4">
-        <v>2</v>
-      </c>
-      <c r="M17" s="4">
-        <v>2</v>
-      </c>
-      <c r="N17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="4">
-        <v>3</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="4">
-        <v>123456780</v>
-      </c>
-      <c r="K18" s="4">
-        <v>3</v>
-      </c>
-      <c r="L18" s="4">
-        <v>3</v>
-      </c>
-      <c r="M18" s="4">
-        <v>3</v>
-      </c>
-      <c r="N18" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="4:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="D21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D24" s="4">
-        <v>2</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D25" s="4">
-        <v>3</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>19</v>
+      <c r="J67" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="C63:F63"/>
     <mergeCell ref="D5:N5"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="J56:N56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
